--- a/rsc/teams/BOAT and WOAT.xlsx
+++ b/rsc/teams/BOAT and WOAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Documents\GitHub\CFBPoll\rsc\teams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Documents\GitHub\CFBPollNew\rsc\teams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70425F50-CFDF-4D20-A4B5-CA66E6976E28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053CB629-0365-40BE-A4D2-65B57B2B5FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD7DC722-BCA6-480D-9BEB-13AA7385FFC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CD7DC722-BCA6-480D-9BEB-13AA7385FFC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>Auburn</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>0-9</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
 </sst>
 </file>
@@ -588,22 +591,22 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
@@ -621,8 +624,8 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="1">
-        <f>AVERAGE(I3:I12)</f>
-        <v>41.055499999999995</v>
+        <f>AVERAGE(I3:I13)</f>
+        <v>40.99218181818182</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>48</v>
@@ -645,7 +648,7 @@
         <v>15.1547</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -695,7 +698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2001</v>
       </c>
@@ -745,7 +748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -795,7 +798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -845,7 +848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -895,7 +898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -945,7 +948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -995,7 +998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -1059,16 +1062,16 @@
         <v>27</v>
       </c>
       <c r="G10">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I10" s="1">
-        <v>40.344999999999999</v>
+        <v>40.359000000000002</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M10">
         <v>2003</v>
@@ -1095,7 +1098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -1109,13 +1112,13 @@
         <v>27</v>
       </c>
       <c r="G11">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1">
-        <v>40.267000000000003</v>
+        <v>40.344999999999999</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>27</v>
@@ -1145,7 +1148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1159,16 +1162,16 @@
         <v>26</v>
       </c>
       <c r="G12">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="H12" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="1">
-        <v>40.140999999999998</v>
+        <v>40.267000000000003</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M12">
         <v>2001</v>
@@ -1195,7 +1198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -1208,6 +1211,18 @@
       <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="G13">
+        <v>2014</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>40.140999999999998</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M13">
         <v>2003</v>
       </c>
@@ -1221,7 +1236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -1253,7 +1268,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2002</v>
       </c>
@@ -1286,7 +1301,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -1316,7 +1331,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M17">
         <v>2012</v>
       </c>
@@ -1332,7 +1347,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
       <c r="M18">
@@ -1349,7 +1364,7 @@
       </c>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
       <c r="M19">
@@ -1367,78 +1382,78 @@
       <c r="W19" s="2"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="X23" s="5"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D24" s="5"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D25" s="5"/>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W26" s="1"/>
       <c r="X26" s="5"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="X27" s="5"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W28" s="1"/>
       <c r="X28" s="5"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W29" s="1"/>
       <c r="X29" s="5"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="X30" s="5"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W31" s="1"/>
       <c r="X31" s="5"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W32" s="1"/>
       <c r="X32" s="5"/>
     </row>
-    <row r="33" spans="23:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="23:24" x14ac:dyDescent="0.3">
       <c r="X33" s="5"/>
     </row>
-    <row r="34" spans="23:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W34" s="1"/>
       <c r="X34" s="5"/>
     </row>
-    <row r="35" spans="23:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W35" s="1"/>
       <c r="X35" s="5"/>
     </row>
-    <row r="36" spans="23:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="23:24" x14ac:dyDescent="0.3">
       <c r="W36" s="1"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="23:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="23:24" x14ac:dyDescent="0.3">
       <c r="X37" s="5"/>
     </row>
   </sheetData>
